--- a/ResultadoEleicoesDistritos/LEIRIA_BOMBARRAL.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_BOMBARRAL.xlsx
@@ -597,28 +597,28 @@
         <v>3439</v>
       </c>
       <c r="H2" t="n">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I2" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J2" t="n">
-        <v>1377</v>
+        <v>1438</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>6</v>
@@ -627,34 +627,34 @@
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="S2" t="n">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="T2" t="n">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="U2" t="n">
+        <v>23</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2193</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2184</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
         <v>21</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2179</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2264</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
